--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
@@ -728,7 +728,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1136,7 +1136,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1155,7 +1155,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1244,7 +1244,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1380,7 +1380,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1852,7 +1852,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -526,27 +526,303 @@
     <t>MedicationAdministration.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>External identifier 外部識別子</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>orderInRp</t>
+  </si>
+  <si>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
+  </si>
+  <si>
+    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番</t>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
   </si>
   <si>
     <t>MedicationAdministration.instantiates</t>
@@ -599,9 +875,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>患者への投与状況</t>
   </si>
   <si>
@@ -621,10 +894,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed　実施されていない理由</t>
@@ -864,32 +1133,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1194,9 +1438,6 @@
     <t>MedicationAdministration.dosage.method.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
@@ -1214,10 +1455,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1819,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1851,7 +2088,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3478,7 +3715,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -3493,16 +3730,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3540,16 +3777,14 @@
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>162</v>
@@ -3567,13 +3802,13 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3584,18 +3819,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3604,18 +3841,20 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3664,7 +3903,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3679,13 +3918,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3696,7 +3935,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3707,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3716,16 +3955,16 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3776,25 +4015,25 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3808,39 +4047,39 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3866,55 +4105,55 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3922,7 +4161,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3933,30 +4172,32 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3980,13 +4221,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -4004,13 +4245,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -4019,16 +4260,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4036,7 +4277,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4056,19 +4297,23 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4092,31 +4337,31 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4134,13 +4379,13 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4148,7 +4393,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4171,30 +4416,32 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>77</v>
@@ -4206,32 +4453,34 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -4243,16 +4492,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4260,11 +4509,9 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4285,16 +4532,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4308,7 +4555,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4320,34 +4567,34 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4359,16 +4606,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4376,7 +4623,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4384,7 +4631,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4399,17 +4646,15 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4458,10 +4703,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4473,13 +4718,13 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>232</v>
@@ -4510,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>234</v>
@@ -4522,7 +4767,7 @@
         <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4572,7 +4817,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4587,13 +4832,13 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>240</v>
@@ -4604,9 +4849,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4627,16 +4874,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4686,7 +4933,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4701,13 +4948,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4718,7 +4965,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4726,7 +4973,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4738,20 +4985,18 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4800,10 +5045,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4812,19 +5057,19 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4832,11 +5077,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4852,18 +5097,20 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4900,19 +5147,19 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4924,19 +5171,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4944,7 +5191,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4961,22 +5208,26 @@
         <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5000,13 +5251,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5024,7 +5275,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5036,19 +5287,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5056,18 +5307,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5076,21 +5327,23 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5114,13 +5367,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5138,31 +5391,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5170,55 +5423,55 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -5254,31 +5507,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5286,7 +5539,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5294,7 +5547,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5306,18 +5559,20 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5330,7 +5585,7 @@
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5342,13 +5597,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5366,7 +5621,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5381,16 +5636,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5398,7 +5653,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5406,7 +5661,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5421,13 +5676,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5478,10 +5733,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5493,16 +5748,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5510,7 +5765,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5521,7 +5776,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5530,18 +5785,20 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5566,13 +5823,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5590,13 +5847,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5605,16 +5862,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5622,18 +5879,20 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5645,16 +5904,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5704,7 +5963,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5719,24 +5978,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5759,20 +6018,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5820,7 +6075,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5832,19 +6087,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5852,11 +6107,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5875,16 +6130,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5922,19 +6177,19 @@
         <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5946,19 +6201,19 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>181</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5966,7 +6221,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5977,30 +6232,32 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6024,13 +6281,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6048,13 +6305,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6063,16 +6320,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6080,7 +6337,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6100,19 +6357,23 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6136,13 +6397,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6160,7 +6421,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6172,19 +6433,19 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>196</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6192,7 +6453,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6200,7 +6461,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
@@ -6212,31 +6473,35 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6537,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6284,19 +6549,19 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6304,18 +6569,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6324,19 +6589,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6350,7 +6615,7 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>77</v>
@@ -6386,31 +6651,31 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6418,43 +6683,39 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6502,31 +6763,31 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6795,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6554,18 +6815,20 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6614,7 +6877,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6632,13 +6895,13 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6646,7 +6909,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6657,7 +6920,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6666,20 +6929,18 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6704,11 +6965,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6726,13 +6989,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -6741,16 +7004,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6758,7 +7021,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6769,7 +7032,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6778,20 +7041,18 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6816,11 +7077,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6838,13 +7101,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6853,16 +7116,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6870,7 +7133,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6878,7 +7141,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
@@ -6887,26 +7150,24 @@
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6930,13 +7191,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6954,10 +7215,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -6969,16 +7230,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6986,7 +7247,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6997,7 +7258,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7009,15 +7270,17 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7042,13 +7305,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7066,31 +7329,31 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7098,18 +7361,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7121,17 +7384,15 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7156,49 +7417,49 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7212,7 +7473,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7220,10 +7481,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7235,20 +7496,18 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7272,35 +7531,35 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7309,16 +7568,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7326,17 +7585,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7351,20 +7610,18 @@
         <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7390,9 +7647,11 @@
       <c r="W49" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X49" s="2"/>
+      <c r="X49" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7410,13 +7669,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7425,16 +7684,16 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7442,7 +7701,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7450,7 +7709,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -7462,18 +7721,20 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7522,10 +7783,10 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -7534,19 +7795,19 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7554,18 +7815,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7577,16 +7838,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7624,43 +7885,43 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7668,7 +7929,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7676,10 +7937,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7688,29 +7949,27 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>77</v>
@@ -7752,13 +8011,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7770,13 +8029,13 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7784,7 +8043,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7792,7 +8051,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -7807,16 +8066,16 @@
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7866,10 +8125,10 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7881,16 +8140,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7898,7 +8157,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7909,7 +8168,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7921,18 +8180,16 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7980,13 +8237,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -7995,16 +8252,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8012,7 +8269,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8032,21 +8289,19 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8094,7 +8349,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8106,19 +8361,19 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>412</v>
+        <v>181</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8126,18 +8381,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8146,23 +8401,21 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>415</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>184</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8210,31 +8463,31 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>186</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8242,44 +8495,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8304,11 +8555,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8326,7 +8579,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8338,19 +8591,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8358,7 +8611,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8381,13 +8634,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8414,13 +8667,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8438,7 +8691,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8450,13 +8703,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8470,18 +8723,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8490,20 +8743,18 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>366</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8540,37 +8791,37 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8584,7 +8835,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8592,10 +8843,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8604,29 +8855,25 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>77</v>
@@ -8644,13 +8891,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8668,13 +8915,13 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8683,16 +8930,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8700,7 +8947,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8711,7 +8958,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8720,19 +8967,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8782,13 +9029,13 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
@@ -8797,24 +9044,24 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8834,20 +9081,22 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8896,7 +9145,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8911,16 +9160,16 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8928,7 +9177,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8939,7 +9188,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8948,21 +9197,21 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>264</v>
+        <v>398</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9010,13 +9259,13 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
@@ -9028,13 +9277,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9042,7 +9291,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9053,7 +9302,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9062,23 +9311,21 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9126,13 +9373,13 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9141,16 +9388,16 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9158,7 +9405,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9178,23 +9425,19 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9242,7 +9485,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9254,19 +9497,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9274,7 +9517,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9297,17 +9540,15 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9356,7 +9597,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>436</v>
+        <v>180</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9365,22 +9606,22 @@
         <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>442</v>
+        <v>181</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9388,18 +9629,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9411,16 +9652,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>446</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>447</v>
+        <v>184</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>448</v>
+        <v>159</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9458,41 +9699,43 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>186</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>449</v>
+        <v>181</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9500,43 +9743,43 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>453</v>
+        <v>355</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>453</v>
+        <v>356</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9584,31 +9827,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>455</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>456</v>
+        <v>129</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9616,11 +9859,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9641,17 +9882,15 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>458</v>
+        <v>177</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9700,7 +9939,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9709,22 +9948,22 @@
         <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>441</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9732,7 +9971,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9743,7 +9982,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9755,16 +9994,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9790,13 +10029,11 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -9814,13 +10051,13 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
@@ -9832,15 +10069,3103 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AB75" s="2"/>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X76" s="2"/>
+      <c r="Y76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X84" s="2"/>
+      <c r="Y84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AB94" s="2"/>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2326,13 +2322,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2346,7 +2342,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2357,28 +2353,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2428,13 +2424,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2460,7 +2456,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2471,25 +2467,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2540,19 +2536,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2572,7 +2568,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2583,28 +2579,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2654,19 +2650,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2686,7 +2682,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2697,7 +2693,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2709,16 +2705,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2744,43 +2740,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2800,18 +2796,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2823,16 +2819,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2882,25 +2878,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -2914,11 +2910,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2937,16 +2933,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2996,7 +2992,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3014,7 +3010,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3028,7 +3024,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3051,13 +3047,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3096,17 +3092,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3118,7 +3114,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -3138,10 +3134,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -3151,7 +3147,7 @@
         <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -3163,13 +3159,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3220,7 +3216,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3229,10 +3225,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3252,10 +3248,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>78</v>
@@ -3265,7 +3261,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3277,13 +3273,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3334,7 +3330,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3343,10 +3339,10 @@
         <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3366,10 +3362,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
@@ -3379,7 +3375,7 @@
         <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3391,13 +3387,13 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3448,7 +3444,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3457,10 +3453,10 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3480,10 +3476,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3505,13 +3501,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3562,7 +3558,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3571,10 +3567,10 @@
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3594,11 +3590,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3611,25 +3607,25 @@
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -3678,7 +3674,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3690,13 +3686,13 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
@@ -3710,7 +3706,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3718,7 +3714,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -3733,16 +3729,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3780,17 +3776,17 @@
         <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3802,16 +3798,16 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3822,20 +3818,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3847,16 +3843,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3906,7 +3902,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3918,16 +3914,16 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3938,7 +3934,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3949,7 +3945,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3961,13 +3957,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4018,25 +4014,25 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -4050,11 +4046,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4073,16 +4069,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4120,19 +4116,19 @@
         <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB18" t="s" s="2">
+      <c r="AE18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4144,13 +4140,13 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -4164,7 +4160,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4175,31 +4171,31 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4224,55 +4220,55 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4280,7 +4276,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4291,31 +4287,31 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -4340,55 +4336,55 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4396,7 +4392,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4404,107 +4400,107 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S21" t="s" s="2">
+      <c r="T21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4512,7 +4508,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4520,31 +4516,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4558,67 +4554,67 @@
         <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4626,7 +4622,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4637,25 +4633,25 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4706,31 +4702,31 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4738,7 +4734,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4749,28 +4745,28 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4820,31 +4816,31 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4852,10 +4848,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>78</v>
@@ -4877,16 +4873,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4936,7 +4932,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4948,16 +4944,16 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4968,7 +4964,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4979,7 +4975,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -4991,13 +4987,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5048,25 +5044,25 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -5080,11 +5076,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5103,16 +5099,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5150,19 +5146,19 @@
         <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB27" t="s" s="2">
+      <c r="AE27" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5174,13 +5170,13 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -5194,7 +5190,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5205,31 +5201,31 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5254,55 +5250,55 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5310,7 +5306,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5321,31 +5317,31 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5370,55 +5366,55 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5426,7 +5422,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5434,107 +5430,107 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="M30" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="T30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5542,7 +5538,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5550,31 +5546,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5588,67 +5584,67 @@
         <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="T31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5656,7 +5652,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5667,25 +5663,25 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5736,31 +5732,31 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5768,7 +5764,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5779,28 +5775,28 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5850,31 +5846,31 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5882,20 +5878,20 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5907,16 +5903,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5966,7 +5962,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5978,16 +5974,16 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5998,7 +5994,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6009,7 +6005,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6021,13 +6017,13 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6078,25 +6074,25 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -6110,11 +6106,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6133,16 +6129,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6180,19 +6176,19 @@
         <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AE36" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6204,13 +6200,13 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -6224,7 +6220,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6235,31 +6231,31 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6284,55 +6280,55 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6340,7 +6336,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6351,31 +6347,31 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6400,55 +6396,55 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6456,7 +6452,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6464,107 +6460,107 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="M39" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="T39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
+      <c r="AF39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6572,7 +6568,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6580,31 +6576,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6618,67 +6614,67 @@
         <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="T40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
+      <c r="AF40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6686,7 +6682,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6697,25 +6693,25 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6766,31 +6762,31 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6798,7 +6794,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6809,28 +6805,28 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6880,31 +6876,31 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6912,7 +6908,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6932,16 +6928,16 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6992,7 +6988,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7004,13 +7000,13 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -7024,7 +7020,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7044,16 +7040,16 @@
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7104,7 +7100,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7116,13 +7112,13 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -7136,7 +7132,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7144,31 +7140,31 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="I45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7194,55 +7190,55 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7250,7 +7246,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7273,16 +7269,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7308,14 +7304,14 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X46" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="X46" t="s" s="2">
+      <c r="Y46" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7332,7 +7328,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7344,19 +7340,19 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7364,7 +7360,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7375,7 +7371,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7387,13 +7383,13 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7420,49 +7416,49 @@
         <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7476,7 +7472,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7484,31 +7480,31 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7534,53 +7530,53 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AE48" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7588,41 +7584,41 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7648,14 +7644,14 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7672,31 +7668,31 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7704,7 +7700,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7712,31 +7708,31 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J50" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7786,31 +7782,31 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7818,7 +7814,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7829,7 +7825,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7841,16 +7837,16 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7900,31 +7896,31 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7932,7 +7928,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7955,16 +7951,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8014,7 +8010,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8026,16 +8022,16 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -8046,7 +8042,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8054,31 +8050,31 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8128,31 +8124,31 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8160,7 +8156,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8180,16 +8176,16 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8240,7 +8236,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8252,19 +8248,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8272,7 +8268,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8283,7 +8279,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8295,13 +8291,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8352,25 +8348,25 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8384,11 +8380,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8407,16 +8403,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8466,7 +8462,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8478,13 +8474,13 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8498,11 +8494,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8515,25 +8511,25 @@
         <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="M57" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8582,7 +8578,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8594,13 +8590,13 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8614,7 +8610,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8625,7 +8621,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8637,13 +8633,13 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8670,49 +8666,49 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AK58" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8726,7 +8722,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8734,28 +8730,28 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J59" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8806,25 +8802,25 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -8838,7 +8834,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8861,13 +8857,13 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8894,14 +8890,14 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8918,7 +8914,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8930,19 +8926,19 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8950,7 +8946,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8973,16 +8969,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9032,7 +9028,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9044,27 +9040,27 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9075,7 +9071,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9087,19 +9083,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9148,31 +9144,31 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9180,7 +9176,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9203,16 +9199,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9262,7 +9258,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9274,19 +9270,19 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9294,7 +9290,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9317,16 +9313,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9376,7 +9372,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9388,13 +9384,13 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9408,7 +9404,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9419,7 +9415,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9431,13 +9427,13 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9488,25 +9484,25 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9520,7 +9516,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9531,7 +9527,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9543,13 +9539,13 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9600,25 +9596,25 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
@@ -9632,11 +9628,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9655,16 +9651,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9714,7 +9710,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9726,13 +9722,13 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
@@ -9746,11 +9742,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9763,25 +9759,25 @@
         <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="M68" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -9830,7 +9826,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9842,13 +9838,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9862,7 +9858,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9873,7 +9869,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -9885,13 +9881,13 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9942,25 +9938,25 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -9974,7 +9970,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9985,7 +9981,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -9997,16 +9993,16 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10032,53 +10028,53 @@
         <v>78</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10086,7 +10082,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10097,7 +10093,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10109,16 +10105,16 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10144,53 +10140,53 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10198,7 +10194,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10209,7 +10205,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10221,19 +10217,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10258,55 +10254,55 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10314,7 +10310,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10325,7 +10321,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10337,13 +10333,13 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10394,25 +10390,25 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
@@ -10426,11 +10422,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10449,16 +10445,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10496,19 +10492,19 @@
         <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB74" t="s" s="2">
+      <c r="AE74" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10520,13 +10516,13 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
@@ -10540,7 +10536,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10560,22 +10556,22 @@
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10612,17 +10608,17 @@
         <v>78</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10634,19 +10630,19 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10654,10 +10650,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>78</v>
@@ -10667,31 +10663,31 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10716,11 +10712,11 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>78</v>
@@ -10738,7 +10734,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10750,19 +10746,19 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10770,7 +10766,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10781,7 +10777,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -10793,13 +10789,13 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10850,25 +10846,25 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -10882,11 +10878,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10905,16 +10901,16 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10952,19 +10948,19 @@
         <v>78</v>
       </c>
       <c r="AA78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB78" t="s" s="2">
+      <c r="AE78" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -10976,13 +10972,13 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -10996,7 +10992,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11004,107 +11000,107 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
+      <c r="AF79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11112,7 +11108,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11123,28 +11119,28 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11194,31 +11190,31 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11226,7 +11222,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11237,29 +11233,29 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
@@ -11308,31 +11304,31 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11340,7 +11336,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11351,29 +11347,29 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11422,31 +11418,31 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AF82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11454,7 +11450,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11465,31 +11461,31 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11538,31 +11534,31 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AF83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK83" t="s" s="2">
+      <c r="AL83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11570,10 +11566,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>78</v>
@@ -11583,31 +11579,31 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="M84" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11632,11 +11628,11 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11654,7 +11650,7 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11666,19 +11662,19 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11686,7 +11682,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11697,7 +11693,7 @@
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -11709,13 +11705,13 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11766,25 +11762,25 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
@@ -11798,11 +11794,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11821,16 +11817,16 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M86" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11868,19 +11864,19 @@
         <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB86" t="s" s="2">
+      <c r="AE86" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -11892,13 +11888,13 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
@@ -11912,7 +11908,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11920,41 +11916,41 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>78</v>
@@ -11996,31 +11992,31 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AF87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12028,7 +12024,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12039,28 +12035,28 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12110,31 +12106,31 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AF88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AL88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12142,7 +12138,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12153,29 +12149,29 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J89" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>78</v>
@@ -12224,31 +12220,31 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AF89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK89" t="s" s="2">
+      <c r="AL89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12256,7 +12252,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12267,29 +12263,29 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>78</v>
@@ -12338,31 +12334,31 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AF90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK90" t="s" s="2">
+      <c r="AL90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12370,7 +12366,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12381,31 +12377,31 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
@@ -12454,31 +12450,31 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AF91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12486,7 +12482,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12497,31 +12493,31 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>78</v>
@@ -12570,31 +12566,31 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK92" t="s" s="2">
+      <c r="AL92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12602,7 +12598,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12613,7 +12609,7 @@
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>78</v>
@@ -12625,16 +12621,16 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12684,31 +12680,31 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI93" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AJ93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK93" t="s" s="2">
+      <c r="AL93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -12716,7 +12712,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12727,7 +12723,7 @@
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>78</v>
@@ -12739,16 +12735,16 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12786,41 +12782,41 @@
         <v>78</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB94" s="2"/>
       <c r="AC94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -12828,10 +12824,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>78</v>
@@ -12841,7 +12837,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>78</v>
@@ -12853,16 +12849,16 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12912,31 +12908,31 @@
         <v>78</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AJ95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AL95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -12944,10 +12940,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>78</v>
@@ -12957,7 +12953,7 @@
         <v>79</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>78</v>
@@ -12969,16 +12965,16 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13028,31 +13024,31 @@
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AJ96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK96" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13060,7 +13056,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13083,16 +13079,16 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13142,7 +13138,7 @@
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
@@ -13154,13 +13150,13 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>78</v>
